--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25520A78-1404-4373-9505-C6CFBE57FA9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1854AA-37F0-44C4-8A2A-846F8953C15E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
   <sheets>
     <sheet name="trading" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>algo</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>chz</t>
-  </si>
-  <si>
-    <t>ftt</t>
   </si>
   <si>
     <t>inj</t>
@@ -652,35 +649,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF7CB25-F341-4004-9C8A-979B88B7DD07}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1">
-        <v>21000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2">
-        <v>74000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <f>B1+B2</f>
@@ -689,7 +686,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <f>IF(B3*0.01&lt;20000,20000,B3*0.01)</f>
@@ -698,7 +695,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <f>B3/B4</f>
@@ -735,314 +732,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE193613-18E0-4606-93D7-1516175CEC7A}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E17" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1854AA-37F0-44C4-8A2A-846F8953C15E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60E284-F863-4842-B116-FF808FDBAC19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D10"/>
+      <selection activeCell="B7" sqref="B7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,298 +735,298 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\kerjaan\crypto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60E284-F863-4842-B116-FF808FDBAC19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0974029-18DF-4F19-8010-2DF287D5B855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="trading" sheetId="1" r:id="rId1"/>
-    <sheet name="nama coin" sheetId="2" r:id="rId2"/>
+    <sheet name="nama coin" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>algo</t>
   </si>
@@ -281,21 +280,6 @@
   </si>
   <si>
     <t>crv</t>
-  </si>
-  <si>
-    <t>crypto</t>
-  </si>
-  <si>
-    <t>modal</t>
-  </si>
-  <si>
-    <t>sekali trading</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>banyak trading</t>
   </si>
 </sst>
 </file>
@@ -646,387 +630,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF7CB25-F341-4004-9C8A-979B88B7DD07}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3">
-        <f>B1+B2</f>
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4">
-        <f>IF(B3*0.01&lt;20000,20000,B3*0.01)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5">
-        <f>B3/B4</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ref="A8:A10" si="0">A7+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE193613-18E0-4606-93D7-1516175CEC7A}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0974029-18DF-4F19-8010-2DF287D5B855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A193E5-1EE8-47A4-A9C7-870E08593937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>algo</t>
   </si>
@@ -631,301 +631,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE193613-18E0-4606-93D7-1516175CEC7A}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>8.93</v>
+      </c>
+      <c r="I2">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A193E5-1EE8-47A4-A9C7-870E08593937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C59DC-ECC2-4C14-A1DA-0D677454BD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
@@ -631,319 +631,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE193613-18E0-4606-93D7-1516175CEC7A}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I3">
+        <v>1.56</v>
+      </c>
+      <c r="J3">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4">
+        <v>2.27</v>
+      </c>
+      <c r="J4">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="I1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2">
-        <v>8.93</v>
-      </c>
-      <c r="I2">
-        <v>19.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C59DC-ECC2-4C14-A1DA-0D677454BD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7A20A-545F-4070-848E-F33327C593E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
@@ -634,328 +634,322 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>1.56</v>
+        <v>2.97</v>
       </c>
       <c r="J3">
-        <v>3.43</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I4">
-        <v>2.27</v>
+        <v>2.84</v>
       </c>
       <c r="J4">
-        <v>4.74</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7A20A-545F-4070-848E-F33327C593E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF2BF44-AB7B-4902-8CD6-369D544E193F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>algo</t>
   </si>
@@ -631,325 +631,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE193613-18E0-4606-93D7-1516175CEC7A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="I3">
-        <v>2.97</v>
-      </c>
-      <c r="J3">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4">
-        <v>2.84</v>
-      </c>
-      <c r="J4">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/kerjaan/crypto/trading crypto.xlsx
+++ b/kerjaan/crypto/trading crypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF2BF44-AB7B-4902-8CD6-369D544E193F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2BECB-FB07-4C82-80E1-A42ED705258B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{68760562-B8E4-433A-85EE-ED5139E707AB}"/>
   </bookViews>
@@ -633,299 +633,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE193613-18E0-4606-93D7-1516175CEC7A}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
